--- a/AnonManagementSystem/Reference/装备管理信息表.xlsx
+++ b/AnonManagementSystem/Reference/装备管理信息表.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NBQXJ\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\Jhld3n\Jhld3n\AnonManagementSystem\Reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11505"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11505" tabRatio="605"/>
   </bookViews>
   <sheets>
-    <sheet name="123" sheetId="1" r:id="rId1"/>
+    <sheet name="对应字段表" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="162">
   <si>
     <t>设备编号</t>
   </si>
@@ -108,9 +108,6 @@
     <t>整备质量</t>
   </si>
   <si>
-    <t>里程读书</t>
-  </si>
-  <si>
     <t>车库</t>
   </si>
   <si>
@@ -201,9 +198,6 @@
     <t>过程照片</t>
   </si>
   <si>
-    <t>过程资料</t>
-  </si>
-  <si>
     <t>资料编号</t>
   </si>
   <si>
@@ -253,6 +247,278 @@
   </si>
   <si>
     <t>备件照片</t>
+  </si>
+  <si>
+    <t>SerialNo</t>
+  </si>
+  <si>
+    <t>SerialNo</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>MajorCategory</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>SubDepartment</t>
+  </si>
+  <si>
+    <t>TechCondition</t>
+  </si>
+  <si>
+    <t>UseCondition</t>
+  </si>
+  <si>
+    <t>Factory</t>
+  </si>
+  <si>
+    <t>MajorComp</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Technician</t>
+  </si>
+  <si>
+    <t>PerformIndex</t>
+  </si>
+  <si>
+    <t>UseMethod</t>
+  </si>
+  <si>
+    <t>MainUsage</t>
+  </si>
+  <si>
+    <t>TechRemould</t>
+  </si>
+  <si>
+    <t>SetupVideo</t>
+  </si>
+  <si>
+    <t>VehiclesNo</t>
+  </si>
+  <si>
+    <t>MotorModel</t>
+  </si>
+  <si>
+    <t>ProductionDate</t>
+  </si>
+  <si>
+    <t>Mass</t>
+  </si>
+  <si>
+    <t>Tankage</t>
+  </si>
+  <si>
+    <t>OverallSize</t>
+  </si>
+  <si>
+    <t>FuelType</t>
+  </si>
+  <si>
+    <t>Mileage</t>
+  </si>
+  <si>
+    <t>里程读数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>LicenseCarry</t>
+  </si>
+  <si>
+    <t>VehicleChargers</t>
+  </si>
+  <si>
+    <t>VehicleSpotNo</t>
+  </si>
+  <si>
+    <t>VehicleDescri</t>
+  </si>
+  <si>
+    <t>CombineOe</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>StartTime</t>
+  </si>
+  <si>
+    <t>EndTime</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>PublishUnit</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>发文时间</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PublishDate</t>
+  </si>
+  <si>
+    <t>According</t>
+  </si>
+  <si>
+    <t>PeopleDescri</t>
+  </si>
+  <si>
+    <t>ProcessDescri</t>
+  </si>
+  <si>
+    <t>HandleStep</t>
+  </si>
+  <si>
+    <t>Problem</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>活动资料存放位置</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动资料名称</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spot</t>
+  </si>
+  <si>
+    <t>OeNo</t>
+  </si>
+  <si>
+    <t>OeModel</t>
+  </si>
+  <si>
+    <t>OutPower</t>
+  </si>
+  <si>
+    <t>WorkHour</t>
+  </si>
+  <si>
+    <t>OeFactory</t>
+  </si>
+  <si>
+    <t>OeOemNo</t>
+  </si>
+  <si>
+    <t>OeDate</t>
+  </si>
+  <si>
+    <t>MotorFactory</t>
+  </si>
+  <si>
+    <t>MotorOemNo</t>
+  </si>
+  <si>
+    <t>MotorDate</t>
+  </si>
+  <si>
+    <t>MotorPower</t>
+  </si>
+  <si>
+    <t>MotorFuel</t>
+  </si>
+  <si>
+    <t>MotorTankage</t>
+  </si>
+  <si>
+    <t>FaultDescri</t>
+  </si>
+  <si>
+    <t>MotorModel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PaperSize</t>
+  </si>
+  <si>
+    <t>Pagination</t>
+  </si>
+  <si>
+    <t>Edition</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>DocumentLink</t>
+  </si>
+  <si>
+    <t>StoreSpot</t>
+  </si>
+  <si>
+    <t>内容简介</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>型号</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductDate</t>
+  </si>
+  <si>
+    <t>StoreDate</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>UseType</t>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>OemNo</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductionDate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoInEvents</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>HigherUnit</t>
+  </si>
+  <si>
+    <t>Executor</t>
+  </si>
+  <si>
+    <t>活动资料编号</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -601,7 +867,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -731,6 +997,203 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -860,14 +1323,92 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1225,453 +1766,726 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
     <col min="17" max="19" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="11" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
+    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="S2" s="15"/>
+      <c r="T2" s="16"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="N3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="S3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="R4" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="S4" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="T4" s="15"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="I5" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="R5" s="4"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
+    <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="1" t="s">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="S7" s="18"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="3"/>
+    </row>
+    <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="O8" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q8" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="R8" s="15"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+    </row>
+    <row r="10" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="K12" s="16"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="F13" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
+      <c r="G13" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I11" s="1" t="s">
+    <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
+      <c r="B14" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" s="15"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>